--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759646.3484957842</v>
+        <v>760214.0602289761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238722</v>
+        <v>2396483.305182806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461767</v>
+        <v>8681080.949752066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7617027.118837199</v>
+        <v>7727037.066356874</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>312.6174861242202</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>171.784294541804</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -719,13 +721,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -899,10 +901,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.7480363891209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.6077533827482</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>76.74086563202125</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>363.5377374116194</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>336.7484257707731</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698673</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>161.4085122120593</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.93352527039168</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1619,7 +1621,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>305.6096491809498</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>25.35996799970812</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>227.8060090741909</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2002,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>59.30888115713338</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>74.34149951545248</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>321.7485549873932</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>257.9891432165599</v>
+        <v>253.8243076884218</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>135.0859970817781</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>66.68447052885269</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.98918911403632</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>125.6476561767121</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2567,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>2.960418791930767</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.06771108705264</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>65.92202770962911</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>142.6378309720628</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>178.3441276800548</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2801,16 +2803,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>45.67082863695097</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2953,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>142.912624253666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>67.53704396047874</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>276.779687315073</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3041,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>290.2951017313698</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -3077,25 +3079,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3193,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20.98476809240994</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3275,16 +3277,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>46.35491006873389</v>
       </c>
       <c r="G35" t="n">
-        <v>211.6410863876294</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.07869429520995</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>240.9556192008006</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3518,10 +3520,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>130.4178928586277</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3676,10 +3678,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>93.52529077486055</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3746,19 +3748,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>22.6048059808196</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293379</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>21.40193826742376</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085628</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>28.60163344621503</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>86.48037677516179</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.513125265401</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="C2" t="n">
-        <v>835.3376237683314</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="D2" t="n">
-        <v>449.8964949849991</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>220.8324595377092</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N2" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T2" t="n">
-        <v>2142.147902636597</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U2" t="n">
-        <v>1886.395173071196</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V2" t="n">
-        <v>1544.288363774714</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W2" t="n">
-        <v>1544.288363774714</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X2" t="n">
-        <v>1544.288363774714</v>
+        <v>617.3231686171081</v>
       </c>
       <c r="Y2" t="n">
-        <v>1544.288363774714</v>
+        <v>220.8324595377092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
         <v>963.7331842818107</v>
@@ -4419,31 +4421,31 @@
         <v>963.7331842818107</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4483,16 +4485,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1179.210445219441</v>
+        <v>751.2033740054294</v>
       </c>
       <c r="C5" t="n">
-        <v>786.0349437223717</v>
+        <v>358.02787250836</v>
       </c>
       <c r="D5" t="n">
-        <v>400.5938149390395</v>
+        <v>358.02787250836</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>358.02787250836</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>358.02787250836</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>358.02787250836</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
         <v>406.2953261290054</v>
@@ -4580,37 +4582,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010237</v>
+        <v>1548.188828796225</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.705190930838</v>
+        <v>1151.698119716826</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N6" t="n">
-        <v>1701.875066013061</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O6" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>204.6389048885706</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>871.2439667521655</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>871.2439667521655</v>
       </c>
       <c r="T7" t="n">
-        <v>821.8431682221751</v>
+        <v>871.2439667521655</v>
       </c>
       <c r="U7" t="n">
-        <v>536.404376464076</v>
+        <v>871.2439667521655</v>
       </c>
       <c r="V7" t="n">
-        <v>270.4250312849002</v>
+        <v>871.2439667521655</v>
       </c>
       <c r="W7" t="n">
-        <v>270.4250312849002</v>
+        <v>871.2439667521655</v>
       </c>
       <c r="X7" t="n">
-        <v>270.4250312849002</v>
+        <v>871.2439667521655</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>871.2439667521655</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.663050286385</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.663050286385</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D8" t="n">
-        <v>1568.663050286385</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.157795997781</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4996,16 +4998,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.3518713258459</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>598.8128425210756</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2298.038883591935</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2074.538281151352</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.895775511779</v>
+        <v>1818.78555158595</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.788966215297</v>
+        <v>1818.78555158595</v>
       </c>
       <c r="W11" t="n">
-        <v>1396.789931183585</v>
+        <v>1818.78555158595</v>
       </c>
       <c r="X11" t="n">
-        <v>1007.337326116642</v>
+        <v>1818.78555158595</v>
       </c>
       <c r="Y11" t="n">
-        <v>610.8466170372428</v>
+        <v>1818.78555158595</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M12" t="n">
-        <v>1549.231189288413</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.128222486198</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O12" t="n">
-        <v>2365.648505077179</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P12" t="n">
         <v>2365.648505077179</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5227,22 +5229,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2058.57031924742</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C14" t="n">
-        <v>1665.394817750351</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.953688967018</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>772.9040239058586</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>356.0095854358364</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
         <v>406.2953261290054</v>
@@ -5291,37 +5293,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>850.6182020620834</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.14176221491</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
-        <v>77.69124027544166</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E16" t="n">
-        <v>77.69124027544166</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>440.488471598613</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129427</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404046</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="U17" t="n">
-        <v>2340.032375784546</v>
+        <v>2460.189498140841</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.925566488064</v>
+        <v>2230.082418267921</v>
       </c>
       <c r="W17" t="n">
-        <v>1626.926531456352</v>
+        <v>2230.082418267921</v>
       </c>
       <c r="X17" t="n">
-        <v>1237.473926389409</v>
+        <v>2230.082418267921</v>
       </c>
       <c r="Y17" t="n">
-        <v>840.9832173100099</v>
+        <v>1833.591709188522</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.14176221491</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>745.9439088256454</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C19" t="n">
-        <v>575.7387908916346</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D19" t="n">
-        <v>420.1056777941494</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E19" t="n">
-        <v>264.5468656533519</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F19" t="n">
-        <v>107.2209308663248</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>745.9439088256454</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>745.9439088256454</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>745.9439088256454</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V19" t="n">
-        <v>745.9439088256454</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W19" t="n">
-        <v>745.9439088256454</v>
+        <v>178.5373511659039</v>
       </c>
       <c r="X19" t="n">
-        <v>745.9439088256454</v>
+        <v>178.5373511659039</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.9439088256454</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1354.596489027179</v>
+        <v>522.6526802404301</v>
       </c>
       <c r="C20" t="n">
-        <v>1354.596489027179</v>
+        <v>447.5602564874478</v>
       </c>
       <c r="D20" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E20" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F20" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5771,31 +5773,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2677.949313991764</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2422.196584426363</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="W20" t="n">
-        <v>1755.091234738576</v>
+        <v>1709.090740098169</v>
       </c>
       <c r="X20" t="n">
-        <v>1755.091234738576</v>
+        <v>1319.638135031226</v>
       </c>
       <c r="Y20" t="n">
-        <v>1755.091234738576</v>
+        <v>923.147425951827</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5816,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,25 +5828,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.973980501895</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N22" t="n">
         <v>677.5630210573304</v>
@@ -5932,28 +5934,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>603.946109046479</v>
       </c>
       <c r="U22" t="n">
-        <v>678.1273584875689</v>
+        <v>318.50731728838</v>
       </c>
       <c r="V22" t="n">
-        <v>417.5322643294276</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="W22" t="n">
-        <v>417.5322643294276</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="X22" t="n">
-        <v>417.5322643294276</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y22" t="n">
-        <v>417.5322643294276</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>522.652680240431</v>
+        <v>522.6526802404301</v>
       </c>
       <c r="C23" t="n">
-        <v>386.2021781376249</v>
+        <v>129.4771787433606</v>
       </c>
       <c r="D23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6002,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991765</v>
+        <v>2677.949313991764</v>
       </c>
       <c r="U23" t="n">
-        <v>2422.196584426364</v>
+        <v>2422.196584426363</v>
       </c>
       <c r="V23" t="n">
-        <v>2080.089775129883</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="W23" t="n">
-        <v>1709.09074009817</v>
+        <v>1709.090740098169</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.638135031227</v>
+        <v>1319.638135031226</v>
       </c>
       <c r="Y23" t="n">
-        <v>923.1474259518279</v>
+        <v>923.147425951827</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,13 +6065,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L24" t="n">
         <v>545.6852136024288</v>
@@ -6081,7 +6083,7 @@
         <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647964</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986228</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835724</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S25" t="n">
-        <v>866.6073733628029</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T25" t="n">
-        <v>630.888321531037</v>
+        <v>2979.039560784854</v>
       </c>
       <c r="U25" t="n">
-        <v>345.4495297729379</v>
+        <v>2693.600769026755</v>
       </c>
       <c r="V25" t="n">
-        <v>345.4495297729379</v>
+        <v>2427.62142384758</v>
       </c>
       <c r="W25" t="n">
-        <v>62.11912770411553</v>
+        <v>2427.62142384758</v>
       </c>
       <c r="X25" t="n">
-        <v>62.11912770411553</v>
+        <v>2427.62142384758</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1663.204043350046</v>
+        <v>1829.717598408996</v>
       </c>
       <c r="C26" t="n">
-        <v>1270.028541852977</v>
+        <v>1829.717598408996</v>
       </c>
       <c r="D26" t="n">
-        <v>884.5874130696445</v>
+        <v>1444.276469625663</v>
       </c>
       <c r="E26" t="n">
-        <v>482.003888186189</v>
+        <v>1041.692944742208</v>
       </c>
       <c r="F26" t="n">
-        <v>65.10944971616681</v>
+        <v>624.7985062721856</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>211.6357507601887</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6251,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U26" t="n">
-        <v>2460.189498140842</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V26" t="n">
-        <v>2460.189498140842</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="W26" t="n">
-        <v>2460.189498140842</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="X26" t="n">
-        <v>2460.189498140842</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="Y26" t="n">
-        <v>2063.698789061443</v>
+        <v>2230.212344120393</v>
       </c>
     </row>
     <row r="27">
@@ -6315,7 +6317,7 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
         <v>1974.833293963354</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>350.6921041055436</v>
+        <v>778.3581315543667</v>
       </c>
       <c r="C28" t="n">
-        <v>350.6921041055436</v>
+        <v>608.1530136203559</v>
       </c>
       <c r="D28" t="n">
-        <v>350.6921041055436</v>
+        <v>452.5199005228706</v>
       </c>
       <c r="E28" t="n">
-        <v>350.6921041055436</v>
+        <v>296.9610883820731</v>
       </c>
       <c r="F28" t="n">
-        <v>350.6921041055436</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G28" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6409,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>616.6714492847194</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>616.6714492847194</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V28" t="n">
-        <v>350.6921041055436</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W28" t="n">
-        <v>350.6921041055436</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X28" t="n">
-        <v>350.6921041055436</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y28" t="n">
-        <v>350.6921041055436</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1702.614188518304</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C29" t="n">
-        <v>1309.438687021235</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D29" t="n">
-        <v>923.9975582379022</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E29" t="n">
-        <v>521.4140333544467</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F29" t="n">
-        <v>521.4140333544467</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G29" t="n">
-        <v>108.2512778424498</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
-        <v>108.2512778424498</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T29" t="n">
-        <v>3067.963471491298</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U29" t="n">
-        <v>2812.210741925897</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V29" t="n">
-        <v>2470.103932629415</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W29" t="n">
-        <v>2099.104897597703</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X29" t="n">
-        <v>2099.104897597703</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="Y29" t="n">
-        <v>1702.614188518304</v>
+        <v>2715.942227706244</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6545,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M30" t="n">
-        <v>1458.313011372373</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N30" t="n">
         <v>1458.313011372373</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2234.887632838122</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="C31" t="n">
-        <v>2234.887632838122</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="D31" t="n">
-        <v>2234.887632838122</v>
+        <v>2950.323272108291</v>
       </c>
       <c r="E31" t="n">
-        <v>2234.887632838122</v>
+        <v>2794.764459967493</v>
       </c>
       <c r="F31" t="n">
-        <v>2234.887632838122</v>
+        <v>2637.438525180466</v>
       </c>
       <c r="G31" t="n">
-        <v>2234.887632838122</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="H31" t="n">
-        <v>2234.887632838122</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="I31" t="n">
-        <v>2234.887632838122</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J31" t="n">
         <v>2204.509362664224</v>
@@ -6652,19 +6654,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U31" t="n">
-        <v>2820.517593447677</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V31" t="n">
-        <v>2752.298357123962</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W31" t="n">
-        <v>2468.967955055139</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X31" t="n">
-        <v>2234.887632838122</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y31" t="n">
-        <v>2234.887632838122</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2422.196584426364</v>
+        <v>1313.161583451361</v>
       </c>
       <c r="C32" t="n">
-        <v>2142.621142693967</v>
+        <v>1313.161583451361</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.180013910635</v>
+        <v>1313.161583451361</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>910.5780585679051</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>493.6836200978829</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H32" t="n">
         <v>200.4562446116507</v>
@@ -6725,25 +6727,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T32" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U32" t="n">
-        <v>2422.196584426364</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V32" t="n">
-        <v>2422.196584426364</v>
+        <v>2470.103932629415</v>
       </c>
       <c r="W32" t="n">
-        <v>2422.196584426364</v>
+        <v>2099.104897597703</v>
       </c>
       <c r="X32" t="n">
-        <v>2422.196584426364</v>
+        <v>1709.652292530759</v>
       </c>
       <c r="Y32" t="n">
-        <v>2422.196584426364</v>
+        <v>1313.161583451361</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N33" t="n">
         <v>1458.313011372373</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
         <v>62.11912770411553</v>
@@ -6883,25 +6885,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>963.5661502456679</v>
+        <v>849.2563164731562</v>
       </c>
       <c r="T34" t="n">
-        <v>727.847098413902</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U34" t="n">
-        <v>727.847098413902</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1919.518325348037</v>
+        <v>1290.142424351542</v>
       </c>
       <c r="C35" t="n">
-        <v>1526.342823850968</v>
+        <v>896.9669228544728</v>
       </c>
       <c r="D35" t="n">
-        <v>1140.901695067635</v>
+        <v>511.5257940711406</v>
       </c>
       <c r="E35" t="n">
-        <v>738.3181701841797</v>
+        <v>108.9422691876851</v>
       </c>
       <c r="F35" t="n">
-        <v>738.3181701841797</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W35" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X35" t="n">
-        <v>2716.503780138833</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y35" t="n">
-        <v>2320.013071059434</v>
+        <v>1690.637170062939</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7117,25 +7119,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>351.4102853026953</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V37" t="n">
-        <v>85.43094012351952</v>
+        <v>802.6419131733114</v>
       </c>
       <c r="W37" t="n">
-        <v>85.43094012351952</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X37" t="n">
-        <v>85.43094012351952</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y37" t="n">
         <v>62.11912770411553</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2535.796644191037</v>
+        <v>1521.00696481371</v>
       </c>
       <c r="C38" t="n">
-        <v>2142.621142693967</v>
+        <v>1521.00696481371</v>
       </c>
       <c r="D38" t="n">
-        <v>1757.180013910635</v>
+        <v>1135.565836030378</v>
       </c>
       <c r="E38" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7187,37 +7189,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991764</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991764</v>
       </c>
       <c r="V38" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991764</v>
       </c>
       <c r="W38" t="n">
-        <v>3105.956385205776</v>
+        <v>2306.950278960052</v>
       </c>
       <c r="X38" t="n">
-        <v>3105.956385205776</v>
+        <v>1917.497673893109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2936.291389902433</v>
+        <v>1521.00696481371</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7238,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,16 +7250,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
         <v>802.5350401618138</v>
@@ -7309,37 +7311,37 @@
         <v>963.5661502456679</v>
       </c>
       <c r="C40" t="n">
-        <v>963.5661502456679</v>
+        <v>793.3610323116571</v>
       </c>
       <c r="D40" t="n">
-        <v>831.8309049339227</v>
+        <v>637.7279192141718</v>
       </c>
       <c r="E40" t="n">
-        <v>676.2720927931252</v>
+        <v>482.1691070733743</v>
       </c>
       <c r="F40" t="n">
-        <v>518.9461580060981</v>
+        <v>324.8431722863473</v>
       </c>
       <c r="G40" t="n">
-        <v>350.6921041055436</v>
+        <v>156.5891183857928</v>
       </c>
       <c r="H40" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N40" t="n">
         <v>677.5630210573304</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1001.906012246416</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C41" t="n">
-        <v>608.7305107493462</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D41" t="n">
-        <v>223.2893819660139</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>223.2893819660139</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F41" t="n">
-        <v>223.2893819660139</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>223.2893819660139</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7424,37 +7426,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V41" t="n">
-        <v>2559.343107135867</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W41" t="n">
-        <v>2188.344072104155</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="X41" t="n">
-        <v>1798.891467037211</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y41" t="n">
-        <v>1402.400757957813</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.98683337017</v>
       </c>
       <c r="C42" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D42" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551743</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662631</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545762</v>
       </c>
       <c r="G42" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176268</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182278</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1415.39249985682</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>2071.170471067379</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2587.69075365836</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2993.312122374758</v>
       </c>
       <c r="Q42" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R42" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.03934210384</v>
       </c>
       <c r="S42" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.108665003709</v>
       </c>
       <c r="T42" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202617</v>
       </c>
       <c r="U42" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.061709881259</v>
       </c>
       <c r="V42" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252326</v>
       </c>
       <c r="W42" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X42" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735624</v>
       </c>
       <c r="Y42" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.7687548437774</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7687548437774</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7687548437774</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E43" t="n">
-        <v>247.2099427029799</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F43" t="n">
-        <v>247.2099427029799</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G43" t="n">
-        <v>247.2099427029799</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H43" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I43" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7591,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>636.8490770607943</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>636.8490770607943</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V43" t="n">
-        <v>636.8490770607943</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W43" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="X43" t="n">
-        <v>402.7687548437774</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y43" t="n">
-        <v>402.7687548437774</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1994.649470045468</v>
+        <v>1919.518325348036</v>
       </c>
       <c r="C44" t="n">
-        <v>1601.473968548398</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D44" t="n">
-        <v>1216.032839765066</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>813.4493148816105</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F44" t="n">
-        <v>813.4493148816105</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2865593696136</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="H44" t="n">
-        <v>76.20350893610424</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>540.6332618200724</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1086.634161864653</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1614.445445502115</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W44" t="n">
-        <v>1994.649470045468</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="X44" t="n">
-        <v>1994.649470045468</v>
+        <v>2716.503780138832</v>
       </c>
       <c r="Y44" t="n">
-        <v>1994.649470045468</v>
+        <v>2320.013071059433</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L45" t="n">
-        <v>554.6660347926879</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.16403979929</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.662044805892</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805892</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1877.39362950163</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="C46" t="n">
-        <v>1707.18851156762</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="D46" t="n">
-        <v>1551.555398470134</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>2450.472043647964</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>2636.763621986228</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>3102.534188835724</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S46" t="n">
-        <v>2162.832421259729</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T46" t="n">
-        <v>2162.832421259729</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U46" t="n">
-        <v>1877.39362950163</v>
+        <v>2987.899432129238</v>
       </c>
       <c r="V46" t="n">
-        <v>1877.39362950163</v>
+        <v>2721.920086950062</v>
       </c>
       <c r="W46" t="n">
-        <v>1877.39362950163</v>
+        <v>2438.58968488124</v>
       </c>
       <c r="X46" t="n">
-        <v>1877.39362950163</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="Y46" t="n">
-        <v>1877.39362950163</v>
+        <v>2204.509362664223</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>612.8252961895585</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>369.9375821741921</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8067,7 +8069,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>333.2595653118437</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>359.0336792489994</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>158.5810024966808</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,25 +8455,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>580.6283116859807</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>349.2438226594826</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>186.088840441687</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8690,10 +8692,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8702,10 +8704,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8766,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>388.298409013546</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8939,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9006,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095472</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684342</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9170,7 +9172,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2346582324079</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>179.0738312465417</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294505</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,7 +9482,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9492,10 +9494,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>326.5064297756122</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9729,10 +9731,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9963,10 +9965,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O27" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10130,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,16 +10193,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M30" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10832,7 +10834,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10905,10 +10907,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11142,7 +11144,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236088</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11309,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L45" t="n">
-        <v>165.3117977752925</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.87231213006271</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22562,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>149.0579253873703</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22595,7 +22597,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22787,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>48.80965324549999</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22799,7 +22801,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>13.23446654642606</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>45.92111384172755</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>107.7142051367364</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23008,7 +23010,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23021,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>35.01995222300144</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23084,7 +23086,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>48.80965324550067</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>227.8352342700394</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>97.91489423796826</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>103.421478775927</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23561,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>227.8352342700393</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>110.8797321293258</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>107.2626322044155</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23938,25 +23940,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>105.6268993443526</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>314.9022469666462</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>45.54048969400219</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5.3304085108241</v>
+        <v>9.495244038962198</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>254.1577494003206</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>314.9022469666463</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -24221,7 +24223,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24412,25 +24414,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>104.7987338652398</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.7142051367361</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0707091649461</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>309.7745088421216</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>89.83064772952767</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24649,16 +24651,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>90.72403034138537</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>218.1456705742281</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>91.28291710150884</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24841,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>23.65888910788291</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>195.7825077669053</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24917,10 +24919,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>112.4640591670257</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>118.736026225507</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,22 +25083,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>133.0184559269796</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>366.3705840165881</v>
       </c>
       <c r="G35" t="n">
-        <v>197.3900415692474</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>104.0045570257511</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.8022462763131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>157.6020704338203</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -25451,13 +25453,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,10 +25551,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>23.65888910788266</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>60.3984747532604</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>298.2374139483546</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25685,13 +25687,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>152.3195699869358</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25801,13 +25803,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>132.5218272606972</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>152.3195699869362</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>108.3521122922448</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,13 +26025,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>67.52284724422772</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26071,22 +26073,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621112.610092441</v>
+        <v>621112.6100924403</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621112.6100924406</v>
+        <v>621112.6100924407</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621112.6100924409</v>
+        <v>621112.61009244</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621112.6100924406</v>
+        <v>699724.7119876089</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699724.711987609</v>
+        <v>699724.7119876089</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>699724.7119876088</v>
+        <v>699724.711987609</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621112.6100924403</v>
+        <v>699724.7119876088</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070291</v>
       </c>
       <c r="C2" t="n">
         <v>169394.3482070292</v>
@@ -26320,13 +26322,13 @@
         <v>169394.3482070292</v>
       </c>
       <c r="E2" t="n">
+        <v>169394.3482070292</v>
+      </c>
+      <c r="F2" t="n">
         <v>169394.3482070293</v>
       </c>
-      <c r="F2" t="n">
-        <v>169394.3482070292</v>
-      </c>
       <c r="G2" t="n">
-        <v>169394.3482070292</v>
+        <v>190834.012360257</v>
       </c>
       <c r="H2" t="n">
         <v>190834.012360257</v>
@@ -26335,7 +26337,7 @@
         <v>190834.012360257</v>
       </c>
       <c r="J2" t="n">
-        <v>190834.0123602571</v>
+        <v>190834.012360257</v>
       </c>
       <c r="K2" t="n">
         <v>190834.012360257</v>
@@ -26344,16 +26346,16 @@
         <v>190834.012360257</v>
       </c>
       <c r="M2" t="n">
-        <v>190834.0123602571</v>
+        <v>190834.012360257</v>
       </c>
       <c r="N2" t="n">
-        <v>190834.012360257</v>
+        <v>190834.0123602569</v>
       </c>
       <c r="O2" t="n">
         <v>190834.012360257</v>
       </c>
       <c r="P2" t="n">
-        <v>169394.3482070292</v>
+        <v>190834.012360257</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50726.82133126157</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44538.95791520669</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3207027394316</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="I4" t="n">
         <v>548.8206074562066</v>
@@ -26442,10 +26444,10 @@
         <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
         <v>548.8206074562066</v>
@@ -26454,10 +26456,10 @@
         <v>548.8206074562066</v>
       </c>
       <c r="O4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3207027394317</v>
+        <v>548.8206074562066</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26503,13 +26505,13 @@
         <v>47210.5370551278</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.53705512778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98848.23576462836</v>
+        <v>-98848.23576462831</v>
       </c>
       <c r="C6" t="n">
-        <v>99347.57022711664</v>
+        <v>99347.57022711661</v>
       </c>
       <c r="D6" t="n">
-        <v>99347.57022711664</v>
+        <v>99347.57022711667</v>
       </c>
       <c r="E6" t="n">
         <v>132975.1702271167</v>
       </c>
       <c r="F6" t="n">
-        <v>132975.1702271166</v>
+        <v>132975.1702271167</v>
       </c>
       <c r="G6" t="n">
-        <v>132975.1702271166</v>
+        <v>92347.83336641148</v>
       </c>
       <c r="H6" t="n">
-        <v>93139.22249026893</v>
+        <v>143074.654697673</v>
       </c>
       <c r="I6" t="n">
         <v>143074.654697673</v>
       </c>
       <c r="J6" t="n">
-        <v>-11664.77966793034</v>
+        <v>-11664.77966793039</v>
       </c>
       <c r="K6" t="n">
         <v>143074.654697673</v>
@@ -26552,16 +26554,16 @@
         <v>143074.654697673</v>
       </c>
       <c r="M6" t="n">
-        <v>143074.6546976731</v>
+        <v>143074.654697673</v>
       </c>
       <c r="N6" t="n">
+        <v>143074.6546976729</v>
+      </c>
+      <c r="O6" t="n">
+        <v>98535.69678246633</v>
+      </c>
+      <c r="P6" t="n">
         <v>143074.654697673</v>
-      </c>
-      <c r="O6" t="n">
-        <v>143074.654697673</v>
-      </c>
-      <c r="P6" t="n">
-        <v>132975.1702271166</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26823,13 +26825,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014439</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>185.076970032149</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>463.1002445918313</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>220.3737447500957</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34787,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>247.8874524576771</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>209.469841824903</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736885</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>431.5098203481966</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>259.1834758025644</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>93.70171839237511</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35422,10 +35424,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>302.9262961593793</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.1108817260881</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35890,7 +35892,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>151.5096066346806</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>93.701718392375</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110584</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36212,10 +36214,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>233.8188708867233</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O27" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36850,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37154,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.7820836676948</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38029,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>35.05004611020362</v>
       </c>
       <c r="L45" t="n">
-        <v>75.25145091837423</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760214.0602289761</v>
+        <v>754976.5978481339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2396483.305182806</v>
+        <v>2396483.305182804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8681080.949752066</v>
+        <v>8681080.949752064</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7727037.066356874</v>
+        <v>7727037.066356876</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>123.7955276347259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>171.784294541804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>163.1726582438467</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.6077533827482</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>137.4533654709776</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>235.301838257323</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>124.5017199692889</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>336.7484257707731</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>97.61153143263803</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1387,10 +1387,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.93352527039168</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>366.8197929181255</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
@@ -1590,7 +1590,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>293.0683194783568</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1621,7 +1621,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>305.6096491809498</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -1861,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>227.8060090741909</v>
+        <v>278.1827419180021</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>128.5631274482084</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>74.34149951545248</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>253.8243076884218</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>66.68447052885269</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.6476561767121</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -2538,13 +2538,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>11.06771108705264</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>88.62506143850833</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>65.92202770962911</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>28.18117761483492</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>178.3441276800548</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>274.7035969124904</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>142.912624253666</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>222.5514469418089</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>290.2951017313698</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -3094,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>247.5675971517606</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
@@ -3246,7 +3246,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>46.35491006873389</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>92.31340177010391</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>159.3149947016329</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>26.80574342287044</v>
       </c>
       <c r="E38" t="n">
-        <v>240.9556192008006</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3556,7 +3556,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -3672,13 +3672,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>40.5358965547188</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>93.52529077486055</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>233.2385090293379</v>
+        <v>283.7965143079209</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>229.2671475085628</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>220.8324595377092</v>
+        <v>172.3589576113678</v>
       </c>
       <c r="C2" t="n">
-        <v>220.8324595377092</v>
+        <v>172.3589576113678</v>
       </c>
       <c r="D2" t="n">
-        <v>220.8324595377092</v>
+        <v>172.3589576113678</v>
       </c>
       <c r="E2" t="n">
-        <v>220.8324595377092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>220.8324595377092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>220.8324595377092</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>406.2953261290054</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749184</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.57585191238</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.13495001823</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577647</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U2" t="n">
-        <v>1719.881618012245</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V2" t="n">
-        <v>1377.774808715764</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W2" t="n">
-        <v>1006.775773684051</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="X2" t="n">
-        <v>617.3231686171081</v>
+        <v>969.3444124021636</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.8324595377092</v>
+        <v>572.8537033227647</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4521,19 +4521,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>751.2033740054294</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C5" t="n">
-        <v>358.02787250836</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D5" t="n">
-        <v>358.02787250836</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>358.02787250836</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>358.02787250836</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>358.02787250836</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>1937.641433863168</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.641433863168</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V5" t="n">
-        <v>1937.641433863168</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W5" t="n">
-        <v>1937.641433863168</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X5" t="n">
-        <v>1548.188828796225</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y5" t="n">
-        <v>1151.698119716826</v>
+        <v>440.488471598613</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M6" t="n">
-        <v>1029.265125924706</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
         <v>2131.283413522289</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.0359480608643</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8308301268535</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D7" t="n">
-        <v>360.1977170293682</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E7" t="n">
-        <v>204.6389048885706</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>871.2439667521655</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>871.2439667521655</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>871.2439667521655</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>871.2439667521655</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>871.2439667521655</v>
+        <v>711.0813681407496</v>
       </c>
       <c r="W7" t="n">
-        <v>871.2439667521655</v>
+        <v>427.7509660719273</v>
       </c>
       <c r="X7" t="n">
-        <v>871.2439667521655</v>
+        <v>427.7509660719273</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.2439667521655</v>
+        <v>204.6389048885707</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.513125265401</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C8" t="n">
-        <v>835.3376237683314</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D8" t="n">
-        <v>449.8964949849991</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154359</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
@@ -4813,43 +4813,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>2017.461012945658</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.648505077179</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.498580056196</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="Y8" t="n">
-        <v>1629.007870976798</v>
+        <v>1729.796052500819</v>
       </c>
     </row>
     <row r="9">
@@ -4877,22 +4877,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083082</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N9" t="n">
         <v>1209.14176221491</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1418.290805874553</v>
+        <v>1594.628716014141</v>
       </c>
       <c r="C11" t="n">
-        <v>1418.290805874553</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D11" t="n">
-        <v>1418.290805874553</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.707280991098</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F11" t="n">
-        <v>598.8128425210756</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2298.038883591935</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2074.538281151352</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>1818.78555158595</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V11" t="n">
-        <v>1818.78555158595</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W11" t="n">
-        <v>1818.78555158595</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X11" t="n">
-        <v>1818.78555158595</v>
+        <v>1995.123461725538</v>
       </c>
       <c r="Y11" t="n">
-        <v>1818.78555158595</v>
+        <v>1995.123461725538</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5229,22 +5229,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U13" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6228038740554</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.663050286384</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C14" t="n">
-        <v>1175.487548789314</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D14" t="n">
-        <v>1175.487548789314</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E14" t="n">
-        <v>772.9040239058586</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>356.0095854358364</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
         <v>406.2953261290054</v>
@@ -5293,34 +5293,34 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y14" t="n">
         <v>1969.157795997781</v>
@@ -5351,28 +5351,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1433.096963477125</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="C17" t="n">
-        <v>1433.096963477125</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="D17" t="n">
-        <v>1433.096963477125</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E17" t="n">
-        <v>1030.51343859367</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F17" t="n">
-        <v>613.6190001236475</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G17" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129427</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404046</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2939.442830146826</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T17" t="n">
-        <v>2715.942227706243</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U17" t="n">
-        <v>2460.189498140841</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V17" t="n">
-        <v>2230.082418267921</v>
+        <v>2402.697431977383</v>
       </c>
       <c r="W17" t="n">
-        <v>2230.082418267921</v>
+        <v>2402.697431977383</v>
       </c>
       <c r="X17" t="n">
-        <v>2230.082418267921</v>
+        <v>2013.24482691044</v>
       </c>
       <c r="Y17" t="n">
-        <v>1833.591709188522</v>
+        <v>1616.754117831041</v>
       </c>
     </row>
     <row r="18">
@@ -5579,10 +5579,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5591,25 +5591,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
         <v>677.5630210573304</v>
@@ -5700,25 +5700,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T19" t="n">
-        <v>727.847098413902</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U19" t="n">
-        <v>727.847098413902</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="V19" t="n">
-        <v>461.8677532347263</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W19" t="n">
-        <v>178.5373511659039</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>178.5373511659039</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>522.6526802404301</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C20" t="n">
-        <v>447.5602564874478</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D20" t="n">
-        <v>62.11912770411551</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411551</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411551</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5773,31 +5773,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491297</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991764</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426363</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129882</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.090740098169</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031226</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.147425951827</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="21">
@@ -5816,10 +5816,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5828,25 +5828,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
         <v>677.5630210573304</v>
@@ -5934,28 +5934,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>603.946109046479</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>318.50731728838</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>62.11912770411551</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>522.6526802404301</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>129.4771787433606</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
-        <v>62.11912770411551</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>62.11912770411551</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411551</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6004,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491297</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991764</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2422.196584426363</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2080.089775129882</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>1709.090740098169</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.638135031226</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>923.147425951827</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6065,25 +6065,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647964</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986228</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835724</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>2979.039560784854</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>2693.600769026755</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>2427.62142384758</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>2427.62142384758</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2427.62142384758</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1829.717598408996</v>
+        <v>1257.630196454539</v>
       </c>
       <c r="C26" t="n">
-        <v>1829.717598408996</v>
+        <v>864.45469495747</v>
       </c>
       <c r="D26" t="n">
-        <v>1444.276469625663</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="E26" t="n">
-        <v>1041.692944742208</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F26" t="n">
-        <v>624.7985062721856</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G26" t="n">
-        <v>211.6357507601887</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6256,22 +6256,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2626.703053199792</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V26" t="n">
-        <v>2626.703053199792</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="W26" t="n">
-        <v>2626.703053199792</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X26" t="n">
-        <v>2626.703053199792</v>
+        <v>1747.645206245238</v>
       </c>
       <c r="Y26" t="n">
-        <v>2230.212344120393</v>
+        <v>1658.124942165936</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>778.3581315543667</v>
+        <v>230.37318160467</v>
       </c>
       <c r="C28" t="n">
-        <v>608.1530136203559</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D28" t="n">
-        <v>452.5199005228706</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E28" t="n">
-        <v>296.9610883820731</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F28" t="n">
         <v>230.37318160467</v>
@@ -6417,19 +6417,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>649.6615225129882</v>
       </c>
       <c r="W28" t="n">
-        <v>963.5661502456679</v>
+        <v>649.6615225129882</v>
       </c>
       <c r="X28" t="n">
-        <v>963.5661502456679</v>
+        <v>415.5812002959713</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.5661502456679</v>
+        <v>415.5812002959713</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2535.796644191037</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C29" t="n">
-        <v>2142.621142693967</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.180013910635</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>752.7602639357997</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V29" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W29" t="n">
-        <v>2715.942227706244</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X29" t="n">
-        <v>2715.942227706244</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.942227706244</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3105.956385205776</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C31" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2950.323272108291</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2794.764459967493</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2637.438525180466</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>738.7667088903054</v>
       </c>
       <c r="W31" t="n">
-        <v>3105.956385205776</v>
+        <v>455.436306821483</v>
       </c>
       <c r="X31" t="n">
-        <v>3105.956385205776</v>
+        <v>455.436306821483</v>
       </c>
       <c r="Y31" t="n">
-        <v>3105.956385205776</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1313.161583451361</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="C32" t="n">
-        <v>1313.161583451361</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D32" t="n">
-        <v>1313.161583451361</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E32" t="n">
-        <v>910.5780585679051</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F32" t="n">
-        <v>493.6836200978829</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>3067.963471491298</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U32" t="n">
-        <v>2812.210741925897</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V32" t="n">
-        <v>2470.103932629415</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W32" t="n">
-        <v>2099.104897597703</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X32" t="n">
-        <v>1709.652292530759</v>
+        <v>1663.528928920324</v>
       </c>
       <c r="Y32" t="n">
-        <v>1313.161583451361</v>
+        <v>1267.038219840925</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6885,13 +6885,13 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>849.2563164731562</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T34" t="n">
-        <v>613.5372646413903</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U34" t="n">
-        <v>328.0984728832913</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V34" t="n">
         <v>62.11912770411553</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1290.142424351542</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C35" t="n">
-        <v>896.9669228544728</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D35" t="n">
-        <v>511.5257940711406</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E35" t="n">
-        <v>108.9422691876851</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411551</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="V35" t="n">
-        <v>2080.089775129883</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="W35" t="n">
-        <v>2080.089775129883</v>
+        <v>3012.710524831934</v>
       </c>
       <c r="X35" t="n">
-        <v>1690.637170062939</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="Y35" t="n">
-        <v>1690.637170062939</v>
+        <v>2226.767210685592</v>
       </c>
     </row>
     <row r="36">
@@ -7025,13 +7025,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7125,19 +7125,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U37" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V37" t="n">
-        <v>802.6419131733114</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W37" t="n">
-        <v>519.3115111044891</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
         <v>62.11912770411553</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1521.00696481371</v>
+        <v>1715.01185657461</v>
       </c>
       <c r="C38" t="n">
-        <v>1521.00696481371</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="D38" t="n">
-        <v>1135.565836030378</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7189,37 +7189,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991764</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U38" t="n">
-        <v>2677.949313991764</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V38" t="n">
-        <v>2677.949313991764</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W38" t="n">
-        <v>2306.950278960052</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X38" t="n">
-        <v>1917.497673893109</v>
+        <v>2511.997311365405</v>
       </c>
       <c r="Y38" t="n">
-        <v>1521.00696481371</v>
+        <v>2115.506602286006</v>
       </c>
     </row>
     <row r="39">
@@ -7238,10 +7238,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7250,25 +7250,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.5661502456679</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="C40" t="n">
-        <v>793.3610323116571</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="D40" t="n">
-        <v>637.7279192141718</v>
+        <v>258.6232899001845</v>
       </c>
       <c r="E40" t="n">
-        <v>482.1691070733743</v>
+        <v>103.064477759387</v>
       </c>
       <c r="F40" t="n">
-        <v>324.8431722863473</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>156.5891183857928</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
         <v>677.5630210573304</v>
@@ -7368,16 +7368,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>414.2564029976698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2073.376476849992</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C41" t="n">
         <v>1680.200975352922</v>
@@ -7396,19 +7396,19 @@
         <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7426,37 +7426,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205775</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W41" t="n">
-        <v>3105.956385205775</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="X41" t="n">
-        <v>2870.361931640788</v>
+        <v>2477.186430143718</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.871222561389</v>
+        <v>2080.695721064319</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>787.6208502301394</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>787.6208502301394</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>787.6208502301394</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1415.39249985682</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>2071.170471067379</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2587.69075365836</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2993.312122374758</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205775</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>727.847098413902</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U43" t="n">
-        <v>442.408306655803</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>176.4289614766272</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1919.518325348036</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C44" t="n">
-        <v>1526.342823850967</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D44" t="n">
         <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7663,37 +7663,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X44" t="n">
-        <v>2716.503780138832</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y44" t="n">
-        <v>2320.013071059433</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="45">
@@ -7712,10 +7712,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7724,22 +7724,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
         <v>2380.454662679751</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>2450.472043647964</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>2636.763621986228</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>3102.534188835724</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>3105.956385205775</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U46" t="n">
-        <v>2987.899432129238</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>2721.920086950062</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>2438.58968488124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>612.8252961895585</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>282.2547480662842</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7999,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8066,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>333.2595653118428</v>
+        <v>151.5659933015362</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8221,7 +8221,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888792</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>359.0336792489994</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>158.5810024966808</v>
+        <v>186.0888404416868</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8461,16 +8461,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>506.8283140129063</v>
       </c>
       <c r="N8" t="n">
-        <v>580.6283116859807</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>186.088840441687</v>
+        <v>237.313040054171</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8704,10 +8704,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>400.3730943507992</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8774,22 +8774,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>674.5394322581649</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8941,10 +8941,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600587</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9011,19 +9011,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084867</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684342</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9181,7 +9181,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9257,10 +9257,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9421,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294505</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9494,10 +9494,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>239.756709922914</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9728,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9965,13 +9965,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10205,10 +10205,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10427,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10673,16 +10673,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10901,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11153,13 +11153,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236088</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11390,7 +11390,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -22555,7 +22555,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>274.7621619998949</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22564,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>149.0579253873703</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,10 +22761,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22773,7 +22773,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>57.70828232767641</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>13.23446654642606</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>255.0724365176273</v>
       </c>
     </row>
     <row r="6">
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>45.92111384172755</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -23001,16 +23001,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>28.01771347006104</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>271.988078284994</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23077,19 +23077,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>48.80965324550067</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>165.708020294746</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>97.91489423796826</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23323,7 +23323,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>18.73828609814825</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23469,7 +23469,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>103.4214787759261</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>103.421478775927</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23740,7 +23740,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>110.8797321293258</v>
+        <v>60.50299928551465</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.6268993443526</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>314.9022469666462</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>9.495244038962198</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>314.9022469666463</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>107.7142051367361</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>309.7745088421216</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>303.9007405500965</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>89.83064772952767</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>235.1383741125491</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>218.1456705742281</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>138.0218971728316</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -24742,13 +24742,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>23.65888910788291</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24897,16 +24897,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>40.7681047855751</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>118.736026225507</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>137.9904818645132</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>87.62118754448966</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>366.3705840165881</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>72.53501773825603</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25365,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>104.0045570257511</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.7809740726285</v>
       </c>
       <c r="E38" t="n">
-        <v>157.6020704338203</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -25453,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>115.216778884438</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>60.3984747532604</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25608,10 +25608,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>152.3195699869358</v>
+        <v>101.7615647083528</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>152.3195699869362</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -26076,10 +26076,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621112.6100924403</v>
+        <v>621112.610092441</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621112.6100924403</v>
+        <v>621112.6100924409</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621112.6100924407</v>
+        <v>621112.6100924409</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621112.61009244</v>
+        <v>621112.6100924407</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699724.7119876089</v>
+        <v>699724.711987609</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699724.711987609</v>
+        <v>699724.7119876089</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699724.7119876089</v>
+        <v>699724.7119876093</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699724.7119876089</v>
+        <v>699724.711987609</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699724.7119876089</v>
+        <v>699724.7119876093</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>699724.711987609</v>
+        <v>699724.7119876089</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699724.7119876089</v>
+        <v>699724.711987609</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>699724.7119876088</v>
+        <v>699724.7119876089</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169394.3482070291</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="C2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="D2" t="n">
-        <v>169394.3482070292</v>
+        <v>169394.3482070293</v>
       </c>
       <c r="E2" t="n">
         <v>169394.3482070292</v>
       </c>
       <c r="F2" t="n">
-        <v>169394.3482070293</v>
+        <v>169394.3482070292</v>
       </c>
       <c r="G2" t="n">
-        <v>190834.012360257</v>
+        <v>190834.0123602571</v>
       </c>
       <c r="H2" t="n">
         <v>190834.012360257</v>
@@ -26337,19 +26337,19 @@
         <v>190834.012360257</v>
       </c>
       <c r="J2" t="n">
-        <v>190834.012360257</v>
+        <v>190834.0123602571</v>
       </c>
       <c r="K2" t="n">
         <v>190834.012360257</v>
       </c>
       <c r="L2" t="n">
-        <v>190834.012360257</v>
+        <v>190834.0123602571</v>
       </c>
       <c r="M2" t="n">
         <v>190834.012360257</v>
       </c>
       <c r="N2" t="n">
-        <v>190834.0123602569</v>
+        <v>190834.012360257</v>
       </c>
       <c r="O2" t="n">
         <v>190834.012360257</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="G4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="I4" t="n">
         <v>548.8206074562066</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26505,13 +26505,13 @@
         <v>47210.5370551278</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98848.23576462831</v>
+        <v>-99522.26189084834</v>
       </c>
       <c r="C6" t="n">
-        <v>99347.57022711661</v>
+        <v>98673.54410089657</v>
       </c>
       <c r="D6" t="n">
-        <v>99347.57022711667</v>
+        <v>98673.54410089666</v>
       </c>
       <c r="E6" t="n">
-        <v>132975.1702271167</v>
+        <v>132301.1441008966</v>
       </c>
       <c r="F6" t="n">
-        <v>132975.1702271167</v>
+        <v>132301.1441008965</v>
       </c>
       <c r="G6" t="n">
-        <v>92347.83336641148</v>
+        <v>91816.73833454632</v>
       </c>
       <c r="H6" t="n">
-        <v>143074.654697673</v>
+        <v>142543.5596658079</v>
       </c>
       <c r="I6" t="n">
-        <v>143074.654697673</v>
+        <v>142543.5596658078</v>
       </c>
       <c r="J6" t="n">
-        <v>-11664.77966793039</v>
+        <v>-12195.87469979552</v>
       </c>
       <c r="K6" t="n">
-        <v>143074.654697673</v>
+        <v>142543.5596658078</v>
       </c>
       <c r="L6" t="n">
-        <v>143074.654697673</v>
+        <v>142543.5596658079</v>
       </c>
       <c r="M6" t="n">
-        <v>143074.654697673</v>
+        <v>142543.5596658079</v>
       </c>
       <c r="N6" t="n">
-        <v>143074.6546976729</v>
+        <v>142543.5596658078</v>
       </c>
       <c r="O6" t="n">
-        <v>98535.69678246633</v>
+        <v>98004.60175060116</v>
       </c>
       <c r="P6" t="n">
-        <v>143074.654697673</v>
+        <v>142543.5596658079</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26825,13 +26825,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34704,13 +34704,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>463.1002445918313</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34719,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>247.8874524576762</v>
+        <v>66.19388044736954</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34941,7 +34941,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583875</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>209.469841824903</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>66.19388044736885</v>
+        <v>93.70171839237487</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35181,16 +35181,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>357.103262415179</v>
       </c>
       <c r="N8" t="n">
-        <v>431.5098203481966</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>93.70171839237511</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35424,10 +35424,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>582.152310208853</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359623</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515685</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260881</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35901,7 +35901,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35977,10 +35977,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110584</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36214,10 +36214,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>147.0691510340251</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36448,13 +36448,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36685,13 +36685,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36925,10 +36925,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37873,13 +37873,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676948</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.05004611020362</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38110,7 +38110,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
